--- a/通信协议.xlsx
+++ b/通信协议.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
   <si>
     <t>ax</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,46 @@
   </si>
   <si>
     <t>leds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>axl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>axh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ayl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ayh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>azl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>azh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gxl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gxh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,7 +593,7 @@
   <dimension ref="A1:AF8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:P3"/>
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -561,11 +601,12 @@
     <col min="1" max="2" width="3.5" customWidth="1"/>
     <col min="3" max="3" width="7.5" customWidth="1"/>
     <col min="4" max="4" width="5.5" customWidth="1"/>
-    <col min="5" max="13" width="3.5" customWidth="1"/>
+    <col min="5" max="13" width="4.5" customWidth="1"/>
     <col min="14" max="14" width="5.5" customWidth="1"/>
     <col min="15" max="16" width="6.5" customWidth="1"/>
-    <col min="17" max="19" width="5.5" customWidth="1"/>
-    <col min="20" max="30" width="3.5" customWidth="1"/>
+    <col min="17" max="18" width="5.5" customWidth="1"/>
+    <col min="19" max="20" width="6.5" customWidth="1"/>
+    <col min="21" max="30" width="3.5" customWidth="1"/>
     <col min="31" max="32" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -812,6 +853,68 @@
         <v>10</v>
       </c>
       <c r="P3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -830,7 +933,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
